--- a/config/cfg_env/std_1580.xlsx
+++ b/config/cfg_env/std_1580.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digestion\tiny_ssu_calc\cfg_std\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digestion\tiny_ssu_calc\config\cfg_env\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,18 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>wr_shft_lim_max</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wr_shft_lim_min</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wr_shft_nom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>force_bnd_lim_max</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -47,6 +35,18 @@
   </si>
   <si>
     <t>force_bnd_nom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos_shft_lim_max</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos_shft_lim_min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos_shft_nom</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -389,7 +389,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -404,22 +404,22 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/config/cfg_env/std_1580.xlsx
+++ b/config/cfg_env/std_1580.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>2400</v>
+        <v>2160</v>
       </c>
       <c r="F2" s="1">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="G2" s="1">
         <v>690</v>
@@ -459,10 +459,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>2400</v>
+        <v>2160</v>
       </c>
       <c r="F3" s="1">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="G3" s="1">
         <v>690</v>
@@ -482,10 +482,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>2400</v>
+        <v>2160</v>
       </c>
       <c r="F4" s="1">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="G4" s="1">
         <v>690</v>
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>2400</v>
+        <v>2160</v>
       </c>
       <c r="F5" s="1">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="G5" s="1">
         <v>690</v>
@@ -528,10 +528,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>2400</v>
+        <v>2160</v>
       </c>
       <c r="F6" s="1">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="G6" s="1">
         <v>690</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>2400</v>
+        <v>2160</v>
       </c>
       <c r="F7" s="1">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="G7" s="1">
         <v>690</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>2400</v>
+        <v>2160</v>
       </c>
       <c r="F8" s="1">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="G8" s="1">
         <v>690</v>
